--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/134.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/134.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1962524959789707</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.250195882866377</v>
+        <v>-1.251066071528558</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1115773791712279</v>
+        <v>-0.1090135347235922</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1785556252935735</v>
+        <v>-0.189646150592116</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1792734550323357</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.33138915720181</v>
+        <v>-1.338324385633626</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2026975204767489</v>
+        <v>-0.198250213991841</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1798010463151187</v>
+        <v>-0.1925516462930243</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1649071113687495</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.447827992451778</v>
+        <v>-1.463907502076956</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2220081165271073</v>
+        <v>-0.2110811166147466</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1846776069387537</v>
+        <v>-0.2026566391302034</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1552402690682208</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.617852052686187</v>
+        <v>-1.638194902736818</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2262203552693789</v>
+        <v>-0.2141647381827458</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755216453606653</v>
+        <v>-0.1942730429922057</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1495221026467425</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.735618071650792</v>
+        <v>-1.754184043174787</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2346696535714676</v>
+        <v>-0.2257545999283791</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1884941726483891</v>
+        <v>-0.201049126182113</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1456716814969174</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.585317801076469</v>
+        <v>-1.609246529238371</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1542326841471255</v>
+        <v>-0.1427552461044923</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1644325801102137</v>
+        <v>-0.17162477700603</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1410982640431688</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.403846963809335</v>
+        <v>-1.425633801421875</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0759127844546011</v>
+        <v>-0.06744888567160338</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1467908190277639</v>
+        <v>-0.1532865729842167</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1346432763975441</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.16059273152731</v>
+        <v>-1.184849970509667</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04638960392845696</v>
+        <v>0.05763051418036303</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1442182142915828</v>
+        <v>-0.1484800946689453</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1251485518564921</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7919043077072271</v>
+        <v>-0.8174668296828566</v>
       </c>
       <c r="F10" t="n">
-        <v>0.142162918499704</v>
+        <v>0.1537849013033372</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1220970256662251</v>
+        <v>-0.1194820795354076</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1111945686709347</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4356204524675045</v>
+        <v>-0.4693694640888591</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1521949089323376</v>
+        <v>0.1636212452917891</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0597296114149691</v>
+        <v>-0.05569841863597017</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.09024239584860995</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07952247525544806</v>
+        <v>0.043158517503276</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1412620688276133</v>
+        <v>0.1536461967347009</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04752260124700211</v>
+        <v>0.05073470704700125</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.05915740678755019</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5826594275268584</v>
+        <v>0.5361568958314163</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07594389738463084</v>
+        <v>0.09437554448426226</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1879237457649644</v>
+        <v>0.1918571153218724</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.01619347254996185</v>
       </c>
       <c r="E14" t="n">
-        <v>1.139911602239709</v>
+        <v>1.093222184388631</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03082211926306776</v>
+        <v>-0.008049749189164788</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3051451667916602</v>
+        <v>0.3089690327417501</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.03933389719139571</v>
       </c>
       <c r="E15" t="n">
-        <v>1.778622780040537</v>
+        <v>1.725666835783279</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1742003018383929</v>
+        <v>-0.1437582991429465</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5047498013478793</v>
+        <v>0.5105651728939686</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1056791882689925</v>
       </c>
       <c r="E16" t="n">
-        <v>2.455138983059265</v>
+        <v>2.406031725569642</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3600731840996157</v>
+        <v>-0.3197831570309902</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6379821097394799</v>
+        <v>0.6366753666981166</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1807576659679107</v>
       </c>
       <c r="E17" t="n">
-        <v>3.086475457952913</v>
+        <v>3.043012746382743</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4988682757175785</v>
+        <v>-0.4513218096371367</v>
       </c>
       <c r="G17" t="n">
-        <v>0.788429845170985</v>
+        <v>0.7820771759274412</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2628340038797957</v>
       </c>
       <c r="E18" t="n">
-        <v>3.703008505252839</v>
+        <v>3.670872846771938</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6361098761668144</v>
+        <v>-0.5912630390064627</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9544066520973949</v>
+        <v>0.9512252073073049</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3510895189334055</v>
       </c>
       <c r="E19" t="n">
-        <v>4.224685148182608</v>
+        <v>4.195443305017888</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7938344912834083</v>
+        <v>-0.7469421267476937</v>
       </c>
       <c r="G19" t="n">
-        <v>1.084746605220905</v>
+        <v>1.079104979397634</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4453872405525466</v>
       </c>
       <c r="E20" t="n">
-        <v>4.726289049958564</v>
+        <v>4.693702236617573</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9823529806853577</v>
+        <v>-0.9310717115883714</v>
       </c>
       <c r="G20" t="n">
-        <v>1.240641780079591</v>
+        <v>1.234516878338229</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5447996962876904</v>
       </c>
       <c r="E21" t="n">
-        <v>5.222211904612794</v>
+        <v>5.202872107600617</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.17469971618167</v>
+        <v>-1.12754162289341</v>
       </c>
       <c r="G21" t="n">
-        <v>1.407161724895819</v>
+        <v>1.398983995538639</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6466531319792576</v>
       </c>
       <c r="E22" t="n">
-        <v>5.613982228702053</v>
+        <v>5.602606994025783</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.364297181122801</v>
+        <v>-1.324024674631266</v>
       </c>
       <c r="G22" t="n">
-        <v>1.525990658870605</v>
+        <v>1.519585427895789</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7448146890978989</v>
       </c>
       <c r="E23" t="n">
-        <v>5.880217617934981</v>
+        <v>5.86090264174035</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.557794434514749</v>
+        <v>-1.519278365876577</v>
       </c>
       <c r="G23" t="n">
-        <v>1.670715005785748</v>
+        <v>1.660151557848024</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.830773111962313</v>
       </c>
       <c r="E24" t="n">
-        <v>6.175034908595538</v>
+        <v>6.157956726076179</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.702292473975801</v>
+        <v>-1.665474441267356</v>
       </c>
       <c r="G24" t="n">
-        <v>1.813291621959164</v>
+        <v>1.80770985810762</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8958665342965378</v>
       </c>
       <c r="E25" t="n">
-        <v>6.319233638197955</v>
+        <v>6.293539711894143</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.856696939733668</v>
+        <v>-1.825761440783495</v>
       </c>
       <c r="G25" t="n">
-        <v>1.861172439052424</v>
+        <v>1.849795744328064</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9345391565620512</v>
       </c>
       <c r="E26" t="n">
-        <v>6.401386164129114</v>
+        <v>6.366298288408396</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.915304000126789</v>
+        <v>-1.875990745230981</v>
       </c>
       <c r="G26" t="n">
-        <v>1.874766946826875</v>
+        <v>1.859953298896516</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9460449319772416</v>
       </c>
       <c r="E27" t="n">
-        <v>6.424120572952654</v>
+        <v>6.384392664399027</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.986721522469542</v>
+        <v>-1.941918486751918</v>
       </c>
       <c r="G27" t="n">
-        <v>1.972568268196394</v>
+        <v>1.957786741324035</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9332601280684233</v>
       </c>
       <c r="E28" t="n">
-        <v>6.516813186052083</v>
+        <v>6.476312912058367</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.062096505162704</v>
+        <v>-2.01804028404358</v>
       </c>
       <c r="G28" t="n">
-        <v>2.019564296146564</v>
+        <v>2.006266178134567</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9006457088944775</v>
       </c>
       <c r="E29" t="n">
-        <v>6.419124288385564</v>
+        <v>6.373829216461304</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.116830057970644</v>
+        <v>-2.069420106386702</v>
       </c>
       <c r="G29" t="n">
-        <v>2.035087527449105</v>
+        <v>2.023921079649835</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8533823213549843</v>
       </c>
       <c r="E30" t="n">
-        <v>6.392395187985298</v>
+        <v>6.348808372327401</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.212415026338164</v>
+        <v>-2.174387343786401</v>
       </c>
       <c r="G30" t="n">
-        <v>2.059023555851462</v>
+        <v>2.052681106944555</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.795046659509499</v>
       </c>
       <c r="E31" t="n">
-        <v>6.297046747408506</v>
+        <v>6.254467364933335</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.246829819888973</v>
+        <v>-2.220034287300571</v>
       </c>
       <c r="G31" t="n">
-        <v>2.005152161441204</v>
+        <v>1.994955185574297</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7291247099091587</v>
       </c>
       <c r="E32" t="n">
-        <v>6.103085198723649</v>
+        <v>6.057993073484025</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.277785759512419</v>
+        <v>-2.251067609472835</v>
       </c>
       <c r="G32" t="n">
-        <v>1.964580345091033</v>
+        <v>1.951658919486491</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6588490489003417</v>
       </c>
       <c r="E33" t="n">
-        <v>5.91914542013479</v>
+        <v>5.878778010517346</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.315222122587363</v>
+        <v>-2.298138829899686</v>
       </c>
       <c r="G33" t="n">
-        <v>1.942454776321402</v>
+        <v>1.935491806975859</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5870126233455073</v>
       </c>
       <c r="E34" t="n">
-        <v>5.680604223090217</v>
+        <v>5.644157042596863</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.40488805599434</v>
+        <v>-2.385997953794162</v>
       </c>
       <c r="G34" t="n">
-        <v>1.870338620967149</v>
+        <v>1.862476261997606</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.516146814932877</v>
       </c>
       <c r="E35" t="n">
-        <v>5.482720985233179</v>
+        <v>5.450967859352096</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.414480571951609</v>
+        <v>-2.398147743982659</v>
       </c>
       <c r="G35" t="n">
-        <v>1.806874710599621</v>
+        <v>1.803750207685076</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.4476535793327869</v>
       </c>
       <c r="E36" t="n">
-        <v>5.294288638668593</v>
+        <v>5.258012283801876</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.394035518534615</v>
+        <v>-2.376290094037711</v>
       </c>
       <c r="G36" t="n">
-        <v>1.715411457992736</v>
+        <v>1.709558125196283</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.3833630928408867</v>
       </c>
       <c r="E37" t="n">
-        <v>4.936175343170962</v>
+        <v>4.903597290118516</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.33657094577263</v>
+        <v>-2.32315456386527</v>
       </c>
       <c r="G37" t="n">
-        <v>1.62264438244067</v>
+        <v>1.614574696642218</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.324156609226413</v>
       </c>
       <c r="E38" t="n">
-        <v>4.724506331239565</v>
+        <v>4.695515616346482</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.232969583361976</v>
+        <v>-2.213683808129164</v>
       </c>
       <c r="G38" t="n">
-        <v>1.541236481035874</v>
+        <v>1.531714047386967</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.2711364815732127</v>
       </c>
       <c r="E39" t="n">
-        <v>4.388651468887836</v>
+        <v>4.355633941360027</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.20472787313953</v>
+        <v>-2.182377456963899</v>
       </c>
       <c r="G39" t="n">
-        <v>1.428168896827813</v>
+        <v>1.419967806701179</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2246523487892181</v>
       </c>
       <c r="E40" t="n">
-        <v>4.071504202724921</v>
+        <v>4.032896151057023</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.153121743342316</v>
+        <v>-2.12821551298355</v>
       </c>
       <c r="G40" t="n">
-        <v>1.335006148243111</v>
+        <v>1.32298557231066</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.1849151539908381</v>
       </c>
       <c r="E41" t="n">
-        <v>3.785055907721453</v>
+        <v>3.754167130310189</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.067768791995884</v>
+        <v>-2.04583010938189</v>
       </c>
       <c r="G41" t="n">
-        <v>1.220319370702233</v>
+        <v>1.209647879205781</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.151806897316632</v>
       </c>
       <c r="E42" t="n">
-        <v>3.491960013760077</v>
+        <v>3.453439564977633</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.961203531960686</v>
+        <v>-1.937006884974101</v>
       </c>
       <c r="G42" t="n">
-        <v>1.116853062739988</v>
+        <v>1.106349476773991</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1247223896281529</v>
       </c>
       <c r="E43" t="n">
-        <v>3.245378331878871</v>
+        <v>3.208339831908699</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.918794975112152</v>
+        <v>-1.89639345725334</v>
       </c>
       <c r="G43" t="n">
-        <v>1.02085344071465</v>
+        <v>1.00803129838029</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1030240839059501</v>
       </c>
       <c r="E44" t="n">
-        <v>2.99160737319803</v>
+        <v>2.95976226428722</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.876652147016163</v>
+        <v>-1.857549607818759</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8980633962692283</v>
+        <v>0.8893819503206851</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.08523686494186841</v>
       </c>
       <c r="E45" t="n">
-        <v>2.727162002924555</v>
+        <v>2.697820876489654</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.748351151051607</v>
+        <v>-1.727708991142339</v>
       </c>
       <c r="G45" t="n">
-        <v>0.781409933949896</v>
+        <v>0.7709121881762624</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.06968043416626295</v>
       </c>
       <c r="E46" t="n">
-        <v>2.516021528402066</v>
+        <v>2.483418654532075</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.686376489736805</v>
+        <v>-1.658626815720994</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7544647464321759</v>
+        <v>0.7459322253889055</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.05477716846651653</v>
       </c>
       <c r="E47" t="n">
-        <v>2.21223954246333</v>
+        <v>2.174646224218613</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.627828561291366</v>
+        <v>-1.604749581118373</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6308585351039364</v>
+        <v>0.6206893001507573</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.03900415248423907</v>
       </c>
       <c r="E48" t="n">
-        <v>2.04915509080501</v>
+        <v>2.018486780655473</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.575815808100835</v>
+        <v>-1.549381637414933</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5656586275563176</v>
+        <v>0.5559201067899565</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.02209768909016267</v>
       </c>
       <c r="E49" t="n">
-        <v>1.856855076847607</v>
+        <v>1.82117442160198</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.539714659005026</v>
+        <v>-1.515820971997305</v>
       </c>
       <c r="G49" t="n">
-        <v>0.495063842312791</v>
+        <v>0.4825045086347944</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.00433436222992934</v>
       </c>
       <c r="E50" t="n">
-        <v>1.75479917534118</v>
+        <v>1.713735322784373</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.436998815761508</v>
+        <v>-1.404490845017426</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4323095153174442</v>
+        <v>0.4186098840804479</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.01360790297556829</v>
       </c>
       <c r="E51" t="n">
-        <v>1.58915963952377</v>
+        <v>1.546494114211236</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.376742631049706</v>
+        <v>-1.345923935946806</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3625688582070993</v>
+        <v>0.3459841719424674</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.03118413963714996</v>
       </c>
       <c r="E52" t="n">
-        <v>1.481978969218253</v>
+        <v>1.43772345153472</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.325071529112448</v>
+        <v>-1.290300483827457</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2847935564524838</v>
+        <v>0.2681884295145792</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.04758805093622692</v>
       </c>
       <c r="E53" t="n">
-        <v>1.273060687890128</v>
+        <v>1.22285401418805</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.275359811713188</v>
+        <v>-1.243302995829197</v>
       </c>
       <c r="G53" t="n">
-        <v>0.24161409421195</v>
+        <v>0.2265989596450449</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.06254481158890161</v>
       </c>
       <c r="E54" t="n">
-        <v>1.308131043033754</v>
+        <v>1.264177755305039</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.266640404514281</v>
+        <v>-1.235526779697017</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1662274311340611</v>
+        <v>0.1482440187983387</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.07523792740588416</v>
       </c>
       <c r="E55" t="n">
-        <v>1.142060793029526</v>
+        <v>1.093198823619176</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.234293039060199</v>
+        <v>-1.206084909943843</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1175246069656197</v>
+        <v>0.0982110908190794</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.08589075760239777</v>
       </c>
       <c r="E56" t="n">
-        <v>1.123483141120804</v>
+        <v>1.070627940181818</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.199120480550209</v>
+        <v>-1.173436774583034</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07786970081653942</v>
+        <v>0.06090540204827124</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.09442206420732997</v>
       </c>
       <c r="E57" t="n">
-        <v>1.024999977292831</v>
+        <v>0.9701007090265725</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.169789574451944</v>
+        <v>-1.136811468222589</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05436730669718209</v>
+        <v>0.03552100593973261</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1010061188279795</v>
       </c>
       <c r="E58" t="n">
-        <v>0.959763568542939</v>
+        <v>0.9047898378240447</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.145530875421496</v>
+        <v>-1.115902119512685</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.03482119098406669</v>
+        <v>-0.05418872890997058</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1060578796302473</v>
       </c>
       <c r="E59" t="n">
-        <v>0.853562590506422</v>
+        <v>0.7924785585270748</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.070868396196698</v>
+        <v>-1.046533774665522</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1062701043607748</v>
+        <v>-0.1259238117124968</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1100351121140766</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8466332022669694</v>
+        <v>0.7862777342849856</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.020946431872347</v>
+        <v>-0.9923221890500823</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1310909219062227</v>
+        <v>-0.1534632388032167</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1130146320329038</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7277779874265468</v>
+        <v>0.6626729830048369</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.014141147720622</v>
+        <v>-0.9914461601955371</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1727417137955751</v>
+        <v>-0.195610447043478</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1155349424985492</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6623152712225643</v>
+        <v>0.5887200871522205</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.018210301749984</v>
+        <v>-0.9931354358367185</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2437964141877378</v>
+        <v>-0.2676243990313678</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1175303334855907</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6097287191323056</v>
+        <v>0.5380359777244158</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.076283714565878</v>
+        <v>-1.053966879496338</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2721009064780939</v>
+        <v>-0.2971042300349053</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1188963614328561</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5319972188204175</v>
+        <v>0.455900972370347</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.048428917087522</v>
+        <v>-1.021114337402802</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.32379974932908</v>
+        <v>-0.3504222662187092</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1198439153403424</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4729368134950697</v>
+        <v>0.3900980649611828</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9985507542058988</v>
+        <v>-0.9682941776179979</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3546680860670717</v>
+        <v>-0.3810993366567919</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1202323288139087</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4224512706076287</v>
+        <v>0.3417763133444686</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.032333346933344</v>
+        <v>-1.007039473806442</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3772199888792475</v>
+        <v>-0.40172689608515</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1202667712914419</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4384665381168062</v>
+        <v>0.360495589918009</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.031777068610708</v>
+        <v>-1.000943773026898</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.394322992216152</v>
+        <v>-0.420580497083054</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1196160347009784</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3471273895976489</v>
+        <v>0.2668159843091251</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.067387641547971</v>
+        <v>-1.04321946549916</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4039257285100585</v>
+        <v>-0.4294648897162334</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1182207309656655</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2765136237289406</v>
+        <v>0.2025928489343241</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.103636255500962</v>
+        <v>-1.080348488450968</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4167288902192369</v>
+        <v>-0.4370074981538678</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1158164952260024</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2392035548138597</v>
+        <v>0.1681984960567879</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.17976170291285</v>
+        <v>-1.152012028897039</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4531848310011362</v>
+        <v>-0.4789809606713111</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1121772555663577</v>
       </c>
       <c r="E71" t="n">
-        <v>0.175393613048786</v>
+        <v>0.1050178350188958</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.303397115202908</v>
+        <v>-1.277487101781642</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.517841600658937</v>
+        <v>-0.5445254395683844</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1069134156332068</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1193934685219828</v>
+        <v>0.04862493755563817</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.338833942417353</v>
+        <v>-1.317820930292995</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5114027885780297</v>
+        <v>-0.5343474443266598</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.09937023842008248</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1021911819148965</v>
+        <v>0.03554436670918714</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.335380928682354</v>
+        <v>-1.313323982172996</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5375040682992044</v>
+        <v>-0.5606779515981073</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.08919044912735095</v>
       </c>
       <c r="E74" t="n">
-        <v>0.159065895248154</v>
+        <v>0.09106269536599042</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.373242895775798</v>
+        <v>-1.34834031553726</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5481302983048379</v>
+        <v>-0.5713932445372862</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.07610264792646529</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1794642271262394</v>
+        <v>0.1206666304572552</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.436677605181508</v>
+        <v>-1.415747815798332</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.512243776278393</v>
+        <v>-0.5355987055405685</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.06018674347490054</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2198360168879558</v>
+        <v>0.1640096180839708</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.363875227224528</v>
+        <v>-1.338499591404535</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5125080449828475</v>
+        <v>-0.5344146065388417</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.04138191396554985</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3487319824495576</v>
+        <v>0.2961717112249354</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.356906417686621</v>
+        <v>-1.33447569886599</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4409978095863212</v>
+        <v>-0.4604135290992251</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.01977649548371571</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4451769191426226</v>
+        <v>0.4011550091536344</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.306953792352362</v>
+        <v>-1.282241018365641</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4576321374860441</v>
+        <v>-0.4766857650724026</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.004387818111741204</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5229493008010563</v>
+        <v>0.4838959344654304</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.27838357130946</v>
+        <v>-1.252133366683013</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4109032983365112</v>
+        <v>-0.4272426965218704</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.03087236595086915</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6391676687892978</v>
+        <v>0.6082131892139424</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.288729472081639</v>
+        <v>-1.26382543179501</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3744181565927937</v>
+        <v>-0.3895880562573351</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.05874615805843839</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6796358217250142</v>
+        <v>0.6404306103879338</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.239298083915834</v>
+        <v>-1.209384618629297</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2902901855946344</v>
+        <v>-0.3000184860243591</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.08764856439016062</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7827706987706229</v>
+        <v>0.7477164041559959</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.169627509113853</v>
+        <v>-1.14174497072177</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2754911381451839</v>
+        <v>-0.2821810784977276</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1166303302611778</v>
       </c>
       <c r="E83" t="n">
-        <v>0.907023711403135</v>
+        <v>0.870978044134781</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.133546800691317</v>
+        <v>-1.107820753329506</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2150655878548365</v>
+        <v>-0.2217219471012892</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1450291981895583</v>
       </c>
       <c r="E84" t="n">
-        <v>1.1054004455149</v>
+        <v>1.077371902313726</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.060290347778064</v>
+        <v>-1.036856575918979</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1834993481293904</v>
+        <v>-0.1902871117040249</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1714629832195696</v>
       </c>
       <c r="E85" t="n">
-        <v>1.184729238438242</v>
+        <v>1.151583226678433</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9582446666082732</v>
+        <v>-0.9361044973577338</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1277649323551326</v>
+        <v>-0.1337292288064947</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1946961279158291</v>
       </c>
       <c r="E86" t="n">
-        <v>1.361872493163922</v>
+        <v>1.335596007671838</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8746350126823866</v>
+        <v>-0.8501003645627568</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05800529461960592</v>
+        <v>-0.06011068396669626</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2128485576938648</v>
       </c>
       <c r="E87" t="n">
-        <v>1.457180052394169</v>
+        <v>1.431503646667449</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.779863291101503</v>
+        <v>-0.7594518187905994</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01710058730470781</v>
+        <v>-0.01693560187043513</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.223512081692377</v>
       </c>
       <c r="E88" t="n">
-        <v>1.540338551459965</v>
+        <v>1.516126573968426</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6489466189820836</v>
+        <v>-0.6361171764072688</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01974956646173684</v>
+        <v>0.01692729350201033</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2245942550084132</v>
       </c>
       <c r="E89" t="n">
-        <v>1.62073171944158</v>
+        <v>1.603211142350675</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5476718432042926</v>
+        <v>-0.5394342518753857</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06681567672026965</v>
+        <v>0.0671909090796332</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2136411763210192</v>
       </c>
       <c r="E90" t="n">
-        <v>1.661675848054932</v>
+        <v>1.647268093493845</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4466087743996834</v>
+        <v>-0.4387507955744128</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07940713145626628</v>
+        <v>0.07805512692408483</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1887558087191343</v>
       </c>
       <c r="E91" t="n">
-        <v>1.670535419870566</v>
+        <v>1.657275263108934</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2758663705045474</v>
+        <v>-0.267333849461277</v>
       </c>
       <c r="G91" t="n">
-        <v>0.108292722886804</v>
+        <v>0.1108930685367124</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1498576885688985</v>
       </c>
       <c r="E92" t="n">
-        <v>1.674058515913929</v>
+        <v>1.664267433416295</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1343760301107672</v>
+        <v>-0.1302090528593138</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1322302113372521</v>
+        <v>0.1353853752617058</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.09840261420171845</v>
       </c>
       <c r="E93" t="n">
-        <v>1.687419415993834</v>
+        <v>1.683756155333745</v>
       </c>
       <c r="F93" t="n">
-        <v>0.02950268770900695</v>
+        <v>0.0352173159368236</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1180005826432559</v>
+        <v>0.1198139623721645</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.03940076047826607</v>
       </c>
       <c r="E94" t="n">
-        <v>1.630534482323941</v>
+        <v>1.627226013349942</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1325718625905247</v>
+        <v>0.1338742254876153</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05707277580963591</v>
+        <v>0.05783492091309025</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.02221991195543179</v>
       </c>
       <c r="E95" t="n">
-        <v>1.557457615325869</v>
+        <v>1.559346917555505</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2218012416183189</v>
+        <v>0.2275494509522265</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01869249164391894</v>
+        <v>0.02109281070537284</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.07940385727805069</v>
       </c>
       <c r="E96" t="n">
-        <v>1.442321142972991</v>
+        <v>1.449706066216807</v>
       </c>
       <c r="F96" t="n">
-        <v>0.273612508172305</v>
+        <v>0.2750316749166683</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.004587975165620263</v>
+        <v>0.001671251000105329</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1267011532683764</v>
       </c>
       <c r="E97" t="n">
-        <v>1.305221167188573</v>
+        <v>1.307691568558391</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3318815674323803</v>
+        <v>0.3298579407783808</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03831800616179303</v>
+        <v>-0.03359475058770339</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1599987741899279</v>
       </c>
       <c r="E98" t="n">
-        <v>1.18798806577715</v>
+        <v>1.191546202974695</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3471989319541035</v>
+        <v>0.3435488117268317</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04904789958188105</v>
+        <v>-0.043147845246519</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1796364184636197</v>
       </c>
       <c r="E99" t="n">
-        <v>1.040136295851281</v>
+        <v>1.041606564278826</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3515922166596477</v>
+        <v>0.3480516000391942</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09640309936241379</v>
+        <v>-0.09018767463941546</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1889702265405901</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9515084566369412</v>
+        <v>0.9536328266092133</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3077805535957504</v>
+        <v>0.2992655531295709</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.135995223443585</v>
+        <v>-0.1341190616467673</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.192551790824486</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8293739737843376</v>
+        <v>0.8315377650550643</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3443503781287406</v>
+        <v>0.344630707362195</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09883991962614042</v>
+        <v>-0.089523352758052</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1968671543619693</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6918038625146473</v>
+        <v>0.6899744222567387</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2847132538074839</v>
+        <v>0.2820924674843028</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1924012613396607</v>
+        <v>-0.1859157277198443</v>
       </c>
     </row>
   </sheetData>
